--- a/Output_Results/accuracy/results_output_for_accuracy_Classroom.xlsx
+++ b/Output_Results/accuracy/results_output_for_accuracy_Classroom.xlsx
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
